--- a/assignments/assignment_5/group_3_ass_5_2023/ 2016_Febrero.xlsx
+++ b/assignments/assignment_5/group_3_ass_5_2023/ 2016_Febrero.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="132">
   <si>
     <t>Corporativos</t>
   </si>
@@ -94,307 +94,322 @@
     <t>-</t>
   </si>
   <si>
-    <t>9.58</t>
-  </si>
-  <si>
-    <t>24.46</t>
-  </si>
-  <si>
-    <t>33.97</t>
-  </si>
-  <si>
-    <t>32.53</t>
-  </si>
-  <si>
-    <t>32.23</t>
-  </si>
-  <si>
-    <t>24.16</t>
-  </si>
-  <si>
-    <t>35.25</t>
-  </si>
-  <si>
-    <t>44.19</t>
-  </si>
-  <si>
-    <t>46.25</t>
-  </si>
-  <si>
-    <t>44.83</t>
-  </si>
-  <si>
-    <t>34.31</t>
-  </si>
-  <si>
-    <t>41.23</t>
-  </si>
-  <si>
-    <t>52.28</t>
-  </si>
-  <si>
-    <t>39.90</t>
-  </si>
-  <si>
-    <t>14.60</t>
-  </si>
-  <si>
-    <t>32.49</t>
-  </si>
-  <si>
-    <t>40.85</t>
-  </si>
-  <si>
-    <t>40.10</t>
-  </si>
-  <si>
-    <t>31.19</t>
-  </si>
-  <si>
-    <t>42.76</t>
-  </si>
-  <si>
-    <t>59.92</t>
-  </si>
-  <si>
-    <t>47.22</t>
-  </si>
-  <si>
-    <t>48.25</t>
-  </si>
-  <si>
-    <t>41.41</t>
-  </si>
-  <si>
-    <t>39.06</t>
-  </si>
-  <si>
-    <t>65.71</t>
-  </si>
-  <si>
-    <t>36.79</t>
-  </si>
-  <si>
-    <t>32.25</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>30.08</t>
-  </si>
-  <si>
-    <t>60.10</t>
-  </si>
-  <si>
-    <t>31.43</t>
-  </si>
-  <si>
-    <t>33.68</t>
-  </si>
-  <si>
-    <t>40.99</t>
-  </si>
-  <si>
-    <t>36.45</t>
-  </si>
-  <si>
-    <t>30.41</t>
-  </si>
-  <si>
-    <t>41.34</t>
-  </si>
-  <si>
-    <t>50.44</t>
-  </si>
-  <si>
-    <t>48.64</t>
-  </si>
-  <si>
-    <t>46.98</t>
-  </si>
-  <si>
-    <t>49.07</t>
-  </si>
-  <si>
-    <t>39.04</t>
-  </si>
-  <si>
-    <t>45.66</t>
-  </si>
-  <si>
-    <t>56.74</t>
-  </si>
-  <si>
-    <t>43.31</t>
-  </si>
-  <si>
-    <t>9.50</t>
-  </si>
-  <si>
-    <t>14.05</t>
-  </si>
-  <si>
-    <t>14.34</t>
-  </si>
-  <si>
-    <t>10.50</t>
-  </si>
-  <si>
-    <t>23.04</t>
-  </si>
-  <si>
-    <t>23.68</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>28.92</t>
-  </si>
-  <si>
-    <t>22.80</t>
-  </si>
-  <si>
-    <t>32.67</t>
-  </si>
-  <si>
-    <t>18.26</t>
+    <t>19.77</t>
+  </si>
+  <si>
+    <t>32.27</t>
+  </si>
+  <si>
+    <t>31.31</t>
+  </si>
+  <si>
+    <t>36.38</t>
+  </si>
+  <si>
+    <t>38.69</t>
+  </si>
+  <si>
+    <t>32.08</t>
+  </si>
+  <si>
+    <t>43.70</t>
+  </si>
+  <si>
+    <t>36.52</t>
+  </si>
+  <si>
+    <t>45.58</t>
+  </si>
+  <si>
+    <t>46.78</t>
+  </si>
+  <si>
+    <t>44.38</t>
+  </si>
+  <si>
+    <t>40.46</t>
+  </si>
+  <si>
+    <t>40.01</t>
+  </si>
+  <si>
+    <t>40.52</t>
+  </si>
+  <si>
+    <t>34.36</t>
+  </si>
+  <si>
+    <t>51.11</t>
+  </si>
+  <si>
+    <t>52.78</t>
+  </si>
+  <si>
+    <t>32.81</t>
+  </si>
+  <si>
+    <t>47.52</t>
+  </si>
+  <si>
+    <t>52.67</t>
+  </si>
+  <si>
+    <t>51.91</t>
   </si>
   <si>
     <t>44.87</t>
   </si>
   <si>
-    <t>54.38</t>
-  </si>
-  <si>
-    <t>45.42</t>
-  </si>
-  <si>
-    <t>31.73</t>
-  </si>
-  <si>
-    <t>27.86</t>
-  </si>
-  <si>
-    <t>43.54</t>
-  </si>
-  <si>
-    <t>27.16</t>
-  </si>
-  <si>
-    <t>20.50</t>
-  </si>
-  <si>
-    <t>29.30</t>
-  </si>
-  <si>
-    <t>56.71</t>
-  </si>
-  <si>
-    <t>53.00</t>
-  </si>
-  <si>
-    <t>124.58</t>
-  </si>
-  <si>
-    <t>62.56</t>
-  </si>
-  <si>
-    <t>34.45</t>
-  </si>
-  <si>
-    <t>28.30</t>
-  </si>
-  <si>
-    <t>41.05</t>
-  </si>
-  <si>
-    <t>27.29</t>
-  </si>
-  <si>
-    <t>21.03</t>
-  </si>
-  <si>
-    <t>25.47</t>
-  </si>
-  <si>
-    <t>28.37</t>
-  </si>
-  <si>
-    <t>20.93</t>
-  </si>
-  <si>
-    <t>28.26</t>
-  </si>
-  <si>
-    <t>49.89</t>
-  </si>
-  <si>
-    <t>46.87</t>
-  </si>
-  <si>
-    <t>30.93</t>
-  </si>
-  <si>
-    <t>27.98</t>
-  </si>
-  <si>
-    <t>24.18</t>
-  </si>
-  <si>
-    <t>38.73</t>
-  </si>
-  <si>
-    <t>23.76</t>
-  </si>
-  <si>
-    <t>11.45</t>
-  </si>
-  <si>
-    <t>14.19</t>
-  </si>
-  <si>
-    <t>10.15</t>
-  </si>
-  <si>
-    <t>25.61</t>
-  </si>
-  <si>
-    <t>27.90</t>
-  </si>
-  <si>
-    <t>39.52</t>
-  </si>
-  <si>
-    <t>34.17</t>
-  </si>
-  <si>
-    <t>25.06</t>
-  </si>
-  <si>
-    <t>38.47</t>
-  </si>
-  <si>
-    <t>48.43</t>
-  </si>
-  <si>
-    <t>55.43</t>
-  </si>
-  <si>
-    <t>47.78</t>
-  </si>
-  <si>
-    <t>36.43</t>
-  </si>
-  <si>
-    <t>38.28</t>
-  </si>
-  <si>
-    <t>53.23</t>
-  </si>
-  <si>
-    <t>36.62</t>
+    <t>49.76</t>
+  </si>
+  <si>
+    <t>46.82</t>
+  </si>
+  <si>
+    <t>38.61</t>
+  </si>
+  <si>
+    <t>48.83</t>
+  </si>
+  <si>
+    <t>38.17</t>
+  </si>
+  <si>
+    <t>31.42</t>
+  </si>
+  <si>
+    <t>32.11</t>
+  </si>
+  <si>
+    <t>55.51</t>
+  </si>
+  <si>
+    <t>36.57</t>
+  </si>
+  <si>
+    <t>31.11</t>
+  </si>
+  <si>
+    <t>43.69</t>
+  </si>
+  <si>
+    <t>61.35</t>
+  </si>
+  <si>
+    <t>52.14</t>
+  </si>
+  <si>
+    <t>51.02</t>
+  </si>
+  <si>
+    <t>41.79</t>
+  </si>
+  <si>
+    <t>38.66</t>
+  </si>
+  <si>
+    <t>37.10</t>
+  </si>
+  <si>
+    <t>38.95</t>
+  </si>
+  <si>
+    <t>28.44</t>
+  </si>
+  <si>
+    <t>35.86</t>
+  </si>
+  <si>
+    <t>32.39</t>
+  </si>
+  <si>
+    <t>34.44</t>
+  </si>
+  <si>
+    <t>27.71</t>
+  </si>
+  <si>
+    <t>39.45</t>
+  </si>
+  <si>
+    <t>55.61</t>
+  </si>
+  <si>
+    <t>43.20</t>
+  </si>
+  <si>
+    <t>45.25</t>
+  </si>
+  <si>
+    <t>41.95</t>
+  </si>
+  <si>
+    <t>34.86</t>
+  </si>
+  <si>
+    <t>38.84</t>
+  </si>
+  <si>
+    <t>34.47</t>
+  </si>
+  <si>
+    <t>15.39</t>
+  </si>
+  <si>
+    <t>14.79</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>27.40</t>
+  </si>
+  <si>
+    <t>28.20</t>
+  </si>
+  <si>
+    <t>33.20</t>
+  </si>
+  <si>
+    <t>28.79</t>
+  </si>
+  <si>
+    <t>27.09</t>
+  </si>
+  <si>
+    <t>36.64</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>50.47</t>
+  </si>
+  <si>
+    <t>43.67</t>
+  </si>
+  <si>
+    <t>35.49</t>
+  </si>
+  <si>
+    <t>34.15</t>
+  </si>
+  <si>
+    <t>42.92</t>
+  </si>
+  <si>
+    <t>33.54</t>
+  </si>
+  <si>
+    <t>25.34</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>25.31</t>
+  </si>
+  <si>
+    <t>43.95</t>
+  </si>
+  <si>
+    <t>136.30</t>
+  </si>
+  <si>
+    <t>51.29</t>
+  </si>
+  <si>
+    <t>34.87</t>
+  </si>
+  <si>
+    <t>25.63</t>
+  </si>
+  <si>
+    <t>25.36</t>
+  </si>
+  <si>
+    <t>27.06</t>
+  </si>
+  <si>
+    <t>45.99</t>
+  </si>
+  <si>
+    <t>26.70</t>
+  </si>
+  <si>
+    <t>30.94</t>
+  </si>
+  <si>
+    <t>50.93</t>
+  </si>
+  <si>
+    <t>45.65</t>
+  </si>
+  <si>
+    <t>45.48</t>
+  </si>
+  <si>
+    <t>30.16</t>
+  </si>
+  <si>
+    <t>29.10</t>
+  </si>
+  <si>
+    <t>36.53</t>
+  </si>
+  <si>
+    <t>28.86</t>
+  </si>
+  <si>
+    <t>16.08</t>
+  </si>
+  <si>
+    <t>16.24</t>
+  </si>
+  <si>
+    <t>21.18</t>
+  </si>
+  <si>
+    <t>28.82</t>
+  </si>
+  <si>
+    <t>29.81</t>
+  </si>
+  <si>
+    <t>36.21</t>
+  </si>
+  <si>
+    <t>33.19</t>
+  </si>
+  <si>
+    <t>53.16</t>
+  </si>
+  <si>
+    <t>38.38</t>
+  </si>
+  <si>
+    <t>52.63</t>
+  </si>
+  <si>
+    <t>44.68</t>
+  </si>
+  <si>
+    <t>39.18</t>
+  </si>
+  <si>
+    <t>33.72</t>
+  </si>
+  <si>
+    <t>39.65</t>
+  </si>
+  <si>
+    <t>33.26</t>
   </si>
 </sst>
 </file>
@@ -726,13 +741,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -746,7 +761,7 @@
         <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
         <v>25</v>
@@ -755,10 +770,13 @@
         <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -783,8 +801,11 @@
       <c r="H2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -809,8 +830,11 @@
       <c r="H3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -835,8 +859,11 @@
       <c r="H4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -861,8 +888,11 @@
       <c r="H5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -887,8 +917,11 @@
       <c r="H6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -902,7 +935,7 @@
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
         <v>25</v>
@@ -911,10 +944,13 @@
         <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -939,8 +975,11 @@
       <c r="H8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -965,8 +1004,11 @@
       <c r="H9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -991,8 +1033,11 @@
       <c r="H10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1017,8 +1062,11 @@
       <c r="H11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1043,8 +1091,11 @@
       <c r="H12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1069,8 +1120,11 @@
       <c r="H13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1095,8 +1149,11 @@
       <c r="H14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1110,19 +1167,22 @@
         <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
         <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1147,8 +1207,11 @@
       <c r="H16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1173,8 +1236,11 @@
       <c r="H17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1188,19 +1254,22 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s">
         <v>25</v>
       </c>
       <c r="H18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1211,22 +1280,25 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s">
         <v>25</v>
       </c>
       <c r="H19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1237,7 +1309,7 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
         <v>25</v>
@@ -1249,10 +1321,13 @@
         <v>25</v>
       </c>
       <c r="H20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1263,22 +1338,25 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
         <v>25</v>
       </c>
       <c r="F21" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G21" t="s">
         <v>25</v>
       </c>
       <c r="H21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1286,25 +1364,28 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F22" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -1329,8 +1410,11 @@
       <c r="H23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -1355,8 +1439,11 @@
       <c r="H24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1367,22 +1454,25 @@
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="G25" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1390,25 +1480,28 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="G26" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="H26" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1416,25 +1509,28 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F27" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="H27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1442,25 +1538,28 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F28" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H28" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1468,25 +1567,28 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F29" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H29" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>109</v>
+      </c>
+      <c r="I29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -1511,8 +1613,11 @@
       <c r="H30" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -1537,8 +1642,11 @@
       <c r="H31" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -1552,19 +1660,22 @@
         <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="F32" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="G32" t="s">
         <v>25</v>
       </c>
       <c r="H32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -1572,13 +1683,13 @@
         <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="E33" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="F33" t="s">
         <v>25</v>
@@ -1587,10 +1698,13 @@
         <v>25</v>
       </c>
       <c r="H33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -1601,22 +1715,25 @@
         <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E34" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G34" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="H34" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -1627,22 +1744,25 @@
         <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E35" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H35" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I35" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -1653,22 +1773,25 @@
         <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E36" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G36" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H36" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -1679,22 +1802,25 @@
         <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E37" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G37" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H37" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I37" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -1705,22 +1831,25 @@
         <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E38" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G38" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H38" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I38" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -1745,8 +1874,11 @@
       <c r="H39" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -1771,8 +1903,11 @@
       <c r="H40" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -1797,8 +1932,11 @@
       <c r="H41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -1809,22 +1947,25 @@
         <v>51</v>
       </c>
       <c r="D42" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E42" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G42" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="H42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I42" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -1835,22 +1976,25 @@
         <v>52</v>
       </c>
       <c r="D43" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E43" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F43" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G43" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H43" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -1875,13 +2019,16 @@
       <c r="H44" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C45" t="s">
         <v>25</v>
@@ -1899,15 +2046,18 @@
         <v>25</v>
       </c>
       <c r="H45" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>24</v>
       </c>
       <c r="B46" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C46" t="s">
         <v>25</v>
@@ -1925,7 +2075,10 @@
         <v>25</v>
       </c>
       <c r="H46" t="s">
-        <v>40</v>
+        <v>25</v>
+      </c>
+      <c r="I46" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
